--- a/second_table.xlsx
+++ b/second_table.xlsx
@@ -247,9 +247,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -257,15 +259,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -275,32 +268,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -316,6 +283,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -323,13 +301,35 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -379,26 +379,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -415,13 +403,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -771,7 +768,7 @@
   <dimension ref="A1:AW18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A1" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -823,99 +820,99 @@
   </cols>
   <sheetData>
     <row r="1" ht="61.8" customHeight="1" thickBot="1">
-      <c r="A1" s="24" t="inlineStr">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>Наименование района</t>
         </is>
       </c>
-      <c r="B1" s="24" t="n"/>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="B1" s="20" t="n"/>
+      <c r="C1" s="23" t="inlineStr">
         <is>
           <t>Минск</t>
         </is>
       </c>
-      <c r="D1" s="30" t="n"/>
-      <c r="E1" s="27" t="inlineStr">
+      <c r="D1" s="29" t="n"/>
+      <c r="E1" s="23" t="inlineStr">
         <is>
           <t>Клецк</t>
         </is>
       </c>
-      <c r="F1" s="30" t="n"/>
-      <c r="G1" s="27" t="inlineStr">
+      <c r="F1" s="29" t="n"/>
+      <c r="G1" s="23" t="inlineStr">
         <is>
           <t>Мядель</t>
         </is>
       </c>
-      <c r="H1" s="30" t="n"/>
-      <c r="I1" s="27" t="inlineStr">
+      <c r="H1" s="29" t="n"/>
+      <c r="I1" s="23" t="inlineStr">
         <is>
           <t>Несвиж</t>
         </is>
       </c>
-      <c r="J1" s="30" t="n"/>
-      <c r="K1" s="27" t="inlineStr">
+      <c r="J1" s="29" t="n"/>
+      <c r="K1" s="23" t="inlineStr">
         <is>
           <t>Пуховичи</t>
         </is>
       </c>
-      <c r="L1" s="30" t="n"/>
-      <c r="M1" s="27" t="inlineStr">
+      <c r="L1" s="29" t="n"/>
+      <c r="M1" s="23" t="inlineStr">
         <is>
           <t>Солигорск</t>
         </is>
       </c>
-      <c r="N1" s="30" t="n"/>
-      <c r="O1" s="27" t="inlineStr">
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="23" t="inlineStr">
         <is>
           <t>Слуцк</t>
         </is>
       </c>
-      <c r="P1" s="30" t="n"/>
-      <c r="Q1" s="27" t="inlineStr">
+      <c r="P1" s="29" t="n"/>
+      <c r="Q1" s="23" t="inlineStr">
         <is>
           <t>Смолевичи</t>
         </is>
       </c>
-      <c r="R1" s="30" t="n"/>
-      <c r="S1" s="27" t="inlineStr">
+      <c r="R1" s="29" t="n"/>
+      <c r="S1" s="23" t="inlineStr">
         <is>
           <t>Старые дороги</t>
         </is>
       </c>
-      <c r="T1" s="30" t="n"/>
-      <c r="U1" s="27" t="inlineStr">
+      <c r="T1" s="29" t="n"/>
+      <c r="U1" s="23" t="inlineStr">
         <is>
           <t>Столбцы</t>
         </is>
       </c>
-      <c r="V1" s="30" t="n"/>
-      <c r="W1" s="27" t="inlineStr">
+      <c r="V1" s="29" t="n"/>
+      <c r="W1" s="23" t="inlineStr">
         <is>
           <t>Узда</t>
         </is>
       </c>
-      <c r="X1" s="30" t="n"/>
-      <c r="Y1" s="27" t="inlineStr">
+      <c r="X1" s="29" t="n"/>
+      <c r="Y1" s="23" t="inlineStr">
         <is>
           <t>Червень</t>
         </is>
       </c>
-      <c r="Z1" s="30" t="n"/>
-      <c r="AA1" s="19" t="inlineStr"/>
-      <c r="AC1" s="19" t="n"/>
-      <c r="AE1" s="19" t="n"/>
-      <c r="AG1" s="19" t="n"/>
-      <c r="AI1" s="19" t="n"/>
-      <c r="AK1" s="19" t="n"/>
-      <c r="AM1" s="19" t="n"/>
-      <c r="AO1" s="19" t="n"/>
-      <c r="AQ1" s="19" t="n"/>
-      <c r="AS1" s="19" t="n"/>
-      <c r="AU1" s="19" t="n"/>
+      <c r="Z1" s="29" t="n"/>
+      <c r="AA1" s="18" t="inlineStr"/>
+      <c r="AC1" s="18" t="n"/>
+      <c r="AE1" s="18" t="n"/>
+      <c r="AG1" s="18" t="n"/>
+      <c r="AI1" s="18" t="n"/>
+      <c r="AK1" s="18" t="n"/>
+      <c r="AM1" s="18" t="n"/>
+      <c r="AO1" s="18" t="n"/>
+      <c r="AQ1" s="18" t="n"/>
+      <c r="AS1" s="18" t="n"/>
+      <c r="AU1" s="18" t="n"/>
     </row>
     <row r="2" ht="54.6" customHeight="1" thickBot="1">
-      <c r="A2" s="31" t="n"/>
-      <c r="B2" s="31" t="n"/>
+      <c r="A2" s="30" t="n"/>
+      <c r="B2" s="30" t="n"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>гор</t>
@@ -1048,122 +1045,122 @@
           <t>Nаб</t>
         </is>
       </c>
-      <c r="C3" s="24" t="inlineStr">
+      <c r="C3" s="20" t="inlineStr">
         <is>
           <t>27,535</t>
         </is>
       </c>
-      <c r="D3" s="24" t="inlineStr">
+      <c r="D3" s="20" t="inlineStr">
         <is>
           <t>232,175</t>
         </is>
       </c>
-      <c r="E3" s="24" t="inlineStr">
+      <c r="E3" s="20" t="inlineStr">
         <is>
           <t>11,462</t>
         </is>
       </c>
-      <c r="F3" s="24" t="inlineStr">
+      <c r="F3" s="20" t="inlineStr">
         <is>
           <t>15,659</t>
         </is>
       </c>
-      <c r="G3" s="24" t="inlineStr">
+      <c r="G3" s="20" t="inlineStr">
         <is>
           <t>13,332</t>
         </is>
       </c>
-      <c r="H3" s="24" t="inlineStr">
+      <c r="H3" s="20" t="inlineStr">
         <is>
           <t>12,423</t>
         </is>
       </c>
-      <c r="I3" s="24" t="inlineStr">
+      <c r="I3" s="20" t="inlineStr">
         <is>
           <t>19,482</t>
         </is>
       </c>
-      <c r="J3" s="24" t="inlineStr">
+      <c r="J3" s="20" t="inlineStr">
         <is>
           <t>20,003</t>
         </is>
       </c>
-      <c r="K3" s="24" t="inlineStr">
+      <c r="K3" s="20" t="inlineStr">
         <is>
           <t>29,096</t>
         </is>
       </c>
-      <c r="L3" s="24" t="inlineStr">
+      <c r="L3" s="20" t="inlineStr">
         <is>
           <t>39,905</t>
         </is>
       </c>
-      <c r="M3" s="24" t="inlineStr">
+      <c r="M3" s="20" t="inlineStr">
         <is>
           <t>111,435</t>
         </is>
       </c>
-      <c r="N3" s="24" t="inlineStr">
+      <c r="N3" s="20" t="inlineStr">
         <is>
           <t>19,076</t>
         </is>
       </c>
-      <c r="O3" s="24" t="inlineStr">
+      <c r="O3" s="20" t="inlineStr">
         <is>
           <t>61,396</t>
         </is>
       </c>
-      <c r="P3" s="24" t="inlineStr">
+      <c r="P3" s="20" t="inlineStr">
         <is>
           <t>26,802</t>
         </is>
       </c>
-      <c r="Q3" s="24" t="inlineStr">
+      <c r="Q3" s="20" t="inlineStr">
         <is>
           <t>21,014</t>
         </is>
       </c>
-      <c r="R3" s="24" t="inlineStr">
+      <c r="R3" s="20" t="inlineStr">
         <is>
           <t>31,276</t>
         </is>
       </c>
-      <c r="S3" s="24" t="inlineStr">
+      <c r="S3" s="20" t="inlineStr">
         <is>
           <t>11,198</t>
         </is>
       </c>
-      <c r="T3" s="24" t="inlineStr">
+      <c r="T3" s="20" t="inlineStr">
         <is>
           <t>8,993</t>
         </is>
       </c>
-      <c r="U3" s="24" t="inlineStr">
-        <is>
-          <t>17,42</t>
-        </is>
-      </c>
-      <c r="V3" s="24" t="inlineStr">
+      <c r="U3" s="20" t="inlineStr">
+        <is>
+          <t>17,420</t>
+        </is>
+      </c>
+      <c r="V3" s="20" t="inlineStr">
         <is>
           <t>21,054</t>
         </is>
       </c>
-      <c r="W3" s="24" t="inlineStr">
+      <c r="W3" s="20" t="inlineStr">
         <is>
           <t>10,781</t>
         </is>
       </c>
-      <c r="X3" s="24" t="inlineStr">
-        <is>
-          <t>13,05</t>
-        </is>
-      </c>
-      <c r="Y3" s="24" t="inlineStr">
+      <c r="X3" s="20" t="inlineStr">
+        <is>
+          <t>13,050</t>
+        </is>
+      </c>
+      <c r="Y3" s="20" t="inlineStr">
         <is>
           <t>16,647</t>
         </is>
       </c>
-      <c r="Z3" s="24" t="inlineStr">
+      <c r="Z3" s="20" t="inlineStr">
         <is>
           <t>16,866</t>
         </is>
@@ -1437,8 +1434,7 @@
     <row r="6" ht="86.40000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Пропускная способность внутризонового канала ШПД,
-Пропускная способность внутризонового канала ШПД, Мбит/с</t>
+          <t>Пропускная способность внутризонового канала ШПД, Мбит/с</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -1914,7 +1910,7 @@
         <f>Y8*0.064</f>
         <v/>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="17">
         <f>Z8*0.064</f>
         <v/>
       </c>
@@ -2656,33 +2652,33 @@
           <t>BIPTV</t>
         </is>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="23">
         <f>19*147</f>
         <v/>
       </c>
-      <c r="D16" s="32" t="n"/>
-      <c r="E16" s="32" t="n"/>
-      <c r="F16" s="32" t="n"/>
-      <c r="G16" s="32" t="n"/>
-      <c r="H16" s="32" t="n"/>
-      <c r="I16" s="32" t="n"/>
-      <c r="J16" s="32" t="n"/>
-      <c r="K16" s="32" t="n"/>
-      <c r="L16" s="32" t="n"/>
-      <c r="M16" s="32" t="n"/>
-      <c r="N16" s="32" t="n"/>
-      <c r="O16" s="32" t="n"/>
-      <c r="P16" s="32" t="n"/>
-      <c r="Q16" s="32" t="n"/>
-      <c r="R16" s="32" t="n"/>
-      <c r="S16" s="32" t="n"/>
-      <c r="T16" s="32" t="n"/>
-      <c r="U16" s="32" t="n"/>
-      <c r="V16" s="32" t="n"/>
-      <c r="W16" s="32" t="n"/>
-      <c r="X16" s="32" t="n"/>
-      <c r="Y16" s="32" t="n"/>
-      <c r="Z16" s="30" t="n"/>
+      <c r="D16" s="31" t="n"/>
+      <c r="E16" s="31" t="n"/>
+      <c r="F16" s="31" t="n"/>
+      <c r="G16" s="31" t="n"/>
+      <c r="H16" s="31" t="n"/>
+      <c r="I16" s="31" t="n"/>
+      <c r="J16" s="31" t="n"/>
+      <c r="K16" s="31" t="n"/>
+      <c r="L16" s="31" t="n"/>
+      <c r="M16" s="31" t="n"/>
+      <c r="N16" s="31" t="n"/>
+      <c r="O16" s="31" t="n"/>
+      <c r="P16" s="31" t="n"/>
+      <c r="Q16" s="31" t="n"/>
+      <c r="R16" s="31" t="n"/>
+      <c r="S16" s="31" t="n"/>
+      <c r="T16" s="31" t="n"/>
+      <c r="U16" s="31" t="n"/>
+      <c r="V16" s="31" t="n"/>
+      <c r="W16" s="31" t="n"/>
+      <c r="X16" s="31" t="n"/>
+      <c r="Y16" s="31" t="n"/>
+      <c r="Z16" s="29" t="n"/>
     </row>
     <row r="17" ht="62.4" customHeight="1" thickBot="1">
       <c r="A17" s="8" t="inlineStr">
@@ -2829,66 +2825,66 @@
           </r>
         </is>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="32">
         <f>C17+D17</f>
         <v/>
       </c>
-      <c r="D18" s="34" t="n"/>
-      <c r="E18" s="33">
+      <c r="D18" s="33" t="n"/>
+      <c r="E18" s="32">
         <f>E17+F17</f>
         <v/>
       </c>
-      <c r="F18" s="34" t="n"/>
-      <c r="G18" s="33">
+      <c r="F18" s="33" t="n"/>
+      <c r="G18" s="32">
         <f>G17+H17</f>
         <v/>
       </c>
-      <c r="H18" s="34" t="n"/>
-      <c r="I18" s="33">
+      <c r="H18" s="33" t="n"/>
+      <c r="I18" s="32">
         <f>I17+J17</f>
         <v/>
       </c>
-      <c r="J18" s="34" t="n"/>
-      <c r="K18" s="33">
+      <c r="J18" s="33" t="n"/>
+      <c r="K18" s="32">
         <f>K17+L17</f>
         <v/>
       </c>
-      <c r="L18" s="34" t="n"/>
-      <c r="M18" s="33">
+      <c r="L18" s="33" t="n"/>
+      <c r="M18" s="32">
         <f>M17+N17</f>
         <v/>
       </c>
-      <c r="N18" s="34" t="n"/>
-      <c r="O18" s="33">
+      <c r="N18" s="33" t="n"/>
+      <c r="O18" s="32">
         <f>O17+P17</f>
         <v/>
       </c>
-      <c r="P18" s="34" t="n"/>
-      <c r="Q18" s="33">
+      <c r="P18" s="33" t="n"/>
+      <c r="Q18" s="32">
         <f>Q17+R17</f>
         <v/>
       </c>
-      <c r="R18" s="34" t="n"/>
-      <c r="S18" s="33">
+      <c r="R18" s="33" t="n"/>
+      <c r="S18" s="32">
         <f>S17+T17</f>
         <v/>
       </c>
-      <c r="T18" s="34" t="n"/>
-      <c r="U18" s="33">
+      <c r="T18" s="33" t="n"/>
+      <c r="U18" s="32">
         <f>U17+V17</f>
         <v/>
       </c>
-      <c r="V18" s="34" t="n"/>
-      <c r="W18" s="33">
+      <c r="V18" s="33" t="n"/>
+      <c r="W18" s="32">
         <f>W17+X17</f>
         <v/>
       </c>
-      <c r="X18" s="34" t="n"/>
-      <c r="Y18" s="33">
+      <c r="X18" s="33" t="n"/>
+      <c r="Y18" s="32">
         <f>Y17+Z17</f>
         <v/>
       </c>
-      <c r="Z18" s="34" t="n"/>
+      <c r="Z18" s="33" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="38">

--- a/second_table.xlsx
+++ b/second_table.xlsx
@@ -819,55 +819,55 @@
       <c r="H1" s="34" t="n"/>
       <c r="I1" s="32" t="inlineStr">
         <is>
-          <t>Копыль</t>
+          <t>Крупки</t>
         </is>
       </c>
       <c r="J1" s="34" t="n"/>
       <c r="K1" s="32" t="inlineStr">
         <is>
-          <t>Клецк</t>
+          <t>Любань</t>
         </is>
       </c>
       <c r="L1" s="34" t="n"/>
       <c r="M1" s="32" t="inlineStr">
         <is>
-          <t>Крупки</t>
+          <t>Молодечно</t>
         </is>
       </c>
       <c r="N1" s="34" t="n"/>
       <c r="O1" s="32" t="inlineStr">
         <is>
-          <t>Логойск</t>
+          <t>Несвиж</t>
         </is>
       </c>
       <c r="P1" s="34" t="n"/>
       <c r="Q1" s="32" t="inlineStr">
         <is>
-          <t>Любань</t>
+          <t>Солигорск</t>
         </is>
       </c>
       <c r="R1" s="34" t="n"/>
       <c r="S1" s="32" t="inlineStr">
         <is>
-          <t>Молодечно</t>
+          <t>Старые Дороги</t>
         </is>
       </c>
       <c r="T1" s="34" t="n"/>
       <c r="U1" s="32" t="inlineStr">
         <is>
-          <t>Мядель</t>
+          <t>Столбцы</t>
         </is>
       </c>
       <c r="V1" s="34" t="n"/>
       <c r="W1" s="32" t="inlineStr">
         <is>
-          <t>Несвиж</t>
+          <t>Узда</t>
         </is>
       </c>
       <c r="X1" s="34" t="n"/>
       <c r="Y1" s="32" t="inlineStr">
         <is>
-          <t>Смолевичи</t>
+          <t>Червень</t>
         </is>
       </c>
       <c r="Z1" s="34" t="n"/>
@@ -1050,92 +1050,92 @@
       </c>
       <c r="I3" s="29" t="inlineStr">
         <is>
-          <t>2433</t>
+          <t>1690</t>
         </is>
       </c>
       <c r="J3" s="29" t="inlineStr">
         <is>
-          <t>2442</t>
+          <t>1665</t>
         </is>
       </c>
       <c r="K3" s="29" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>2735</t>
         </is>
       </c>
       <c r="L3" s="29" t="inlineStr">
         <is>
-          <t>2161</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="M3" s="29" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>26809</t>
         </is>
       </c>
       <c r="N3" s="29" t="inlineStr">
         <is>
-          <t>1665</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="O3" s="29" t="inlineStr">
         <is>
-          <t>3598</t>
+          <t>3691</t>
         </is>
       </c>
       <c r="P3" s="29" t="inlineStr">
         <is>
-          <t>2398</t>
+          <t>2761</t>
         </is>
       </c>
       <c r="Q3" s="29" t="inlineStr">
         <is>
-          <t>2735</t>
+          <t>34321</t>
         </is>
       </c>
       <c r="R3" s="29" t="inlineStr">
         <is>
-          <t>2159</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="S3" s="29" t="inlineStr">
         <is>
-          <t>26809</t>
+          <t>2628</t>
         </is>
       </c>
       <c r="T3" s="29" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>1242</t>
         </is>
       </c>
       <c r="U3" s="29" t="inlineStr">
         <is>
-          <t>1414</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="V3" s="29" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>2906</t>
         </is>
       </c>
       <c r="W3" s="29" t="inlineStr">
         <is>
-          <t>3691</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="X3" s="29" t="inlineStr">
         <is>
-          <t>2761</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="Y3" s="29" t="inlineStr">
         <is>
-          <t>4656</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="Z3" s="29" t="inlineStr">
         <is>
-          <t>4317</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="AA3" s="12" t="n"/>

--- a/second_table.xlsx
+++ b/second_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7440" yWindow="-13380" windowWidth="11115" windowHeight="11010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -250,9 +250,15 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -262,45 +268,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -316,6 +283,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -323,13 +301,35 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -376,9 +376,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,18 +391,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,25 +427,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -780,10 +777,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -793,99 +790,88 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.05" customHeight="1" thickBot="1">
-      <c r="A1" s="29" t="inlineStr">
+      <c r="A1" s="23" t="inlineStr">
         <is>
           <t>Наименование района</t>
         </is>
       </c>
-      <c r="B1" s="29" t="n"/>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="B1" s="23" t="n"/>
+      <c r="C1" s="30" t="inlineStr">
         <is>
           <t>Минск</t>
         </is>
       </c>
-      <c r="D1" s="34" t="n"/>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="D1" s="33" t="n"/>
+      <c r="E1" s="30" t="inlineStr">
         <is>
           <t>Воложин</t>
         </is>
       </c>
-      <c r="F1" s="34" t="n"/>
-      <c r="G1" s="32" t="inlineStr">
+      <c r="F1" s="33" t="n"/>
+      <c r="G1" s="30" t="inlineStr">
         <is>
           <t>Дзержинск</t>
         </is>
       </c>
-      <c r="H1" s="34" t="n"/>
-      <c r="I1" s="32" t="inlineStr">
+      <c r="H1" s="33" t="n"/>
+      <c r="I1" s="30" t="inlineStr">
+        <is>
+          <t>Копыль</t>
+        </is>
+      </c>
+      <c r="J1" s="33" t="n"/>
+      <c r="K1" s="30" t="inlineStr">
+        <is>
+          <t>Клецк</t>
+        </is>
+      </c>
+      <c r="L1" s="33" t="n"/>
+      <c r="M1" s="30" t="inlineStr">
         <is>
           <t>Крупки</t>
         </is>
       </c>
-      <c r="J1" s="34" t="n"/>
-      <c r="K1" s="32" t="inlineStr">
+      <c r="N1" s="33" t="n"/>
+      <c r="O1" s="30" t="inlineStr">
+        <is>
+          <t>Логойск</t>
+        </is>
+      </c>
+      <c r="P1" s="33" t="n"/>
+      <c r="Q1" s="30" t="inlineStr">
         <is>
           <t>Любань</t>
         </is>
       </c>
-      <c r="L1" s="34" t="n"/>
-      <c r="M1" s="32" t="inlineStr">
+      <c r="R1" s="33" t="n"/>
+      <c r="S1" s="30" t="inlineStr">
         <is>
           <t>Молодечно</t>
         </is>
       </c>
-      <c r="N1" s="34" t="n"/>
-      <c r="O1" s="32" t="inlineStr">
+      <c r="T1" s="33" t="n"/>
+      <c r="U1" s="30" t="inlineStr">
+        <is>
+          <t>Мядель</t>
+        </is>
+      </c>
+      <c r="V1" s="33" t="n"/>
+      <c r="W1" s="30" t="inlineStr">
         <is>
           <t>Несвиж</t>
         </is>
       </c>
-      <c r="P1" s="34" t="n"/>
-      <c r="Q1" s="32" t="inlineStr">
-        <is>
-          <t>Солигорск</t>
-        </is>
-      </c>
-      <c r="R1" s="34" t="n"/>
-      <c r="S1" s="32" t="inlineStr">
-        <is>
-          <t>Старые Дороги</t>
-        </is>
-      </c>
-      <c r="T1" s="34" t="n"/>
-      <c r="U1" s="32" t="inlineStr">
-        <is>
-          <t>Столбцы</t>
-        </is>
-      </c>
-      <c r="V1" s="34" t="n"/>
-      <c r="W1" s="32" t="inlineStr">
-        <is>
-          <t>Узда</t>
-        </is>
-      </c>
-      <c r="X1" s="34" t="n"/>
-      <c r="Y1" s="32" t="inlineStr">
-        <is>
-          <t>Червень</t>
-        </is>
-      </c>
-      <c r="Z1" s="34" t="n"/>
-      <c r="AA1" s="24" t="inlineStr"/>
-      <c r="AC1" s="24" t="n"/>
-      <c r="AE1" s="24" t="n"/>
-      <c r="AG1" s="24" t="n"/>
-      <c r="AI1" s="24" t="n"/>
-      <c r="AK1" s="24" t="n"/>
-      <c r="AM1" s="24" t="n"/>
-      <c r="AO1" s="24" t="n"/>
-      <c r="AQ1" s="24" t="n"/>
-      <c r="AS1" s="24" t="n"/>
-      <c r="AU1" s="24" t="n"/>
+      <c r="X1" s="33" t="n"/>
+      <c r="Y1" s="30" t="inlineStr">
+        <is>
+          <t>Смолевичи</t>
+        </is>
+      </c>
+      <c r="Z1" s="33" t="n"/>
     </row>
     <row r="2" ht="40.05" customHeight="1" thickBot="1">
-      <c r="A2" s="35" t="n"/>
-      <c r="B2" s="35" t="n"/>
+      <c r="A2" s="34" t="n"/>
+      <c r="B2" s="34" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
           <t>гор</t>
@@ -1018,149 +1004,126 @@
           <t>Nаб</t>
         </is>
       </c>
-      <c r="C3" s="29" t="inlineStr">
+      <c r="C3" s="23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D3" s="29" t="inlineStr">
+      <c r="D3" s="23" t="inlineStr">
         <is>
           <t>32041</t>
         </is>
       </c>
-      <c r="E3" s="29" t="inlineStr">
+      <c r="E3" s="23" t="inlineStr">
         <is>
           <t>2349</t>
         </is>
       </c>
-      <c r="F3" s="29" t="inlineStr">
+      <c r="F3" s="23" t="inlineStr">
         <is>
           <t>2815</t>
         </is>
       </c>
-      <c r="G3" s="29" t="inlineStr">
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>7935</t>
         </is>
       </c>
-      <c r="H3" s="29" t="inlineStr">
+      <c r="H3" s="23" t="inlineStr">
         <is>
           <t>3175</t>
         </is>
       </c>
-      <c r="I3" s="29" t="inlineStr">
+      <c r="I3" s="23" t="inlineStr">
+        <is>
+          <t>2433</t>
+        </is>
+      </c>
+      <c r="J3" s="23" t="inlineStr">
+        <is>
+          <t>2442</t>
+        </is>
+      </c>
+      <c r="K3" s="23" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+      <c r="L3" s="23" t="inlineStr">
+        <is>
+          <t>2161</t>
+        </is>
+      </c>
+      <c r="M3" s="23" t="inlineStr">
         <is>
           <t>1690</t>
         </is>
       </c>
-      <c r="J3" s="29" t="inlineStr">
+      <c r="N3" s="23" t="inlineStr">
         <is>
           <t>1665</t>
         </is>
       </c>
-      <c r="K3" s="29" t="inlineStr">
+      <c r="O3" s="23" t="inlineStr">
+        <is>
+          <t>3598</t>
+        </is>
+      </c>
+      <c r="P3" s="23" t="inlineStr">
+        <is>
+          <t>2398</t>
+        </is>
+      </c>
+      <c r="Q3" s="23" t="inlineStr">
         <is>
           <t>2735</t>
         </is>
       </c>
-      <c r="L3" s="29" t="inlineStr">
+      <c r="R3" s="23" t="inlineStr">
         <is>
           <t>2159</t>
         </is>
       </c>
-      <c r="M3" s="29" t="inlineStr">
+      <c r="S3" s="23" t="inlineStr">
         <is>
           <t>26809</t>
         </is>
       </c>
-      <c r="N3" s="29" t="inlineStr">
+      <c r="T3" s="23" t="inlineStr">
         <is>
           <t>4741</t>
         </is>
       </c>
-      <c r="O3" s="29" t="inlineStr">
+      <c r="U3" s="23" t="inlineStr">
+        <is>
+          <t>1414</t>
+        </is>
+      </c>
+      <c r="V3" s="23" t="inlineStr">
+        <is>
+          <t>1715</t>
+        </is>
+      </c>
+      <c r="W3" s="23" t="inlineStr">
         <is>
           <t>3691</t>
         </is>
       </c>
-      <c r="P3" s="29" t="inlineStr">
+      <c r="X3" s="23" t="inlineStr">
         <is>
           <t>2761</t>
         </is>
       </c>
-      <c r="Q3" s="29" t="inlineStr">
-        <is>
-          <t>34321</t>
-        </is>
-      </c>
-      <c r="R3" s="29" t="inlineStr">
-        <is>
-          <t>2633</t>
-        </is>
-      </c>
-      <c r="S3" s="29" t="inlineStr">
-        <is>
-          <t>2628</t>
-        </is>
-      </c>
-      <c r="T3" s="29" t="inlineStr">
-        <is>
-          <t>1242</t>
-        </is>
-      </c>
-      <c r="U3" s="29" t="inlineStr">
-        <is>
-          <t>4087</t>
-        </is>
-      </c>
-      <c r="V3" s="29" t="inlineStr">
-        <is>
-          <t>2906</t>
-        </is>
-      </c>
-      <c r="W3" s="29" t="inlineStr">
-        <is>
-          <t>2530</t>
-        </is>
-      </c>
-      <c r="X3" s="29" t="inlineStr">
-        <is>
-          <t>1801</t>
-        </is>
-      </c>
-      <c r="Y3" s="29" t="inlineStr">
-        <is>
-          <t>2519</t>
-        </is>
-      </c>
-      <c r="Z3" s="29" t="inlineStr">
-        <is>
-          <t>2328</t>
-        </is>
-      </c>
-      <c r="AA3" s="12" t="n"/>
-      <c r="AB3" s="12" t="n"/>
-      <c r="AC3" s="12" t="n"/>
-      <c r="AD3" s="12" t="n"/>
-      <c r="AE3" s="12" t="n"/>
-      <c r="AF3" s="12" t="n"/>
-      <c r="AG3" s="12" t="n"/>
-      <c r="AH3" s="12" t="n"/>
-      <c r="AI3" s="12" t="n"/>
-      <c r="AJ3" s="12" t="n"/>
-      <c r="AK3" s="12" t="n"/>
-      <c r="AL3" s="12" t="n"/>
-      <c r="AM3" s="12" t="n"/>
-      <c r="AN3" s="12" t="n"/>
-      <c r="AO3" s="12" t="n"/>
-      <c r="AP3" s="12" t="n"/>
-      <c r="AQ3" s="12" t="n"/>
-      <c r="AR3" s="12" t="n"/>
-      <c r="AS3" s="12" t="n"/>
-      <c r="AT3" s="12" t="n"/>
-      <c r="AU3" s="12" t="n"/>
-      <c r="AV3" s="12" t="n"/>
-      <c r="AW3" s="12" t="n"/>
+      <c r="Y3" s="23" t="inlineStr">
+        <is>
+          <t>4656</t>
+        </is>
+      </c>
+      <c r="Z3" s="23" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="79.95" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="inlineStr">
@@ -1889,7 +1852,7 @@
         <f>Y8*0.064</f>
         <v/>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="16">
         <f>Z8*0.064</f>
         <v/>
       </c>
@@ -2162,100 +2125,100 @@
           </r>
         </is>
       </c>
-      <c r="C12" s="18" t="inlineStr">
+      <c r="C12" s="17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <f>D3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f>E3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <f>F3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f>G3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <f>H3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <f>I3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <f>J3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <f>K3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <f>L3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <f>M3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <f>N3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="17">
         <f>O3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <f>P3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="17">
         <f>Q3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="17">
         <f>R3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="17">
         <f>S3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="17">
         <f>T3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="17">
         <f>U3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="17">
         <f>V3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="17">
         <f>W3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="17">
         <f>X3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="17">
         <f>Y3*0.01*0.3*10</f>
         <v/>
       </c>
-      <c r="Z12" s="18">
+      <c r="Z12" s="17">
         <f>Z3*0.01*0.3*10</f>
         <v/>
       </c>
@@ -2266,7 +2229,7 @@
           <t>Число абонентов, пользующихся услугой ВКС</t>
         </is>
       </c>
-      <c r="B13" s="20" t="inlineStr">
+      <c r="B13" s="19" t="inlineStr">
         <is>
           <r>
             <t>N</t>
@@ -2284,100 +2247,100 @@
           </r>
         </is>
       </c>
-      <c r="C13" s="19" t="inlineStr">
+      <c r="C13" s="18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f>ROUNDUP(D3*0.01,0)</f>
         <v/>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f>ROUNDUP(E3*0.01,0)</f>
         <v/>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <f>ROUNDUP(F3*0.01,0)</f>
         <v/>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="18">
         <f>ROUNDUP(G3*0.01,0)</f>
         <v/>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <f>ROUNDUP(H3*0.01,0)</f>
         <v/>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="18">
         <f>ROUNDUP(I3*0.01,0)</f>
         <v/>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="18">
         <f>ROUNDUP(J3*0.01,0)</f>
         <v/>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="18">
         <f>ROUNDUP(K3*0.01,0)</f>
         <v/>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="18">
         <f>ROUNDUP(L3*0.01,0)</f>
         <v/>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="18">
         <f>ROUNDUP(M3*0.01,0)</f>
         <v/>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <f>ROUNDUP(N3*0.01,0)</f>
         <v/>
       </c>
-      <c r="O13" s="19">
+      <c r="O13" s="18">
         <f>ROUNDUP(O3*0.01,0)</f>
         <v/>
       </c>
-      <c r="P13" s="19">
+      <c r="P13" s="18">
         <f>ROUNDUP(P3*0.01,0)</f>
         <v/>
       </c>
-      <c r="Q13" s="19">
+      <c r="Q13" s="18">
         <f>ROUNDUP(Q3*0.01,0)</f>
         <v/>
       </c>
-      <c r="R13" s="19">
+      <c r="R13" s="18">
         <f>ROUNDUP(R3*0.01,0)</f>
         <v/>
       </c>
-      <c r="S13" s="19">
+      <c r="S13" s="18">
         <f>ROUNDUP(S3*0.01,0)</f>
         <v/>
       </c>
-      <c r="T13" s="19">
+      <c r="T13" s="18">
         <f>ROUNDUP(T3*0.01,0)</f>
         <v/>
       </c>
-      <c r="U13" s="19">
+      <c r="U13" s="18">
         <f>ROUNDUP(U3*0.01,0)</f>
         <v/>
       </c>
-      <c r="V13" s="19">
+      <c r="V13" s="18">
         <f>ROUNDUP(V3*0.01,0)</f>
         <v/>
       </c>
-      <c r="W13" s="19">
+      <c r="W13" s="18">
         <f>ROUNDUP(W3*0.01,0)</f>
         <v/>
       </c>
-      <c r="X13" s="19">
+      <c r="X13" s="18">
         <f>ROUNDUP(X3*0.01,0)</f>
         <v/>
       </c>
-      <c r="Y13" s="19">
+      <c r="Y13" s="18">
         <f>ROUNDUP(Y3*0.01,0)</f>
         <v/>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="18">
         <f>ROUNDUP(Z3*0.01,0)</f>
         <v/>
       </c>
@@ -2388,7 +2351,7 @@
           <t>Число активных абонентов ВКС</t>
         </is>
       </c>
-      <c r="B14" s="20" t="inlineStr">
+      <c r="B14" s="19" t="inlineStr">
         <is>
           <r>
             <t>N</t>
@@ -2406,100 +2369,100 @@
           </r>
         </is>
       </c>
-      <c r="C14" s="20" t="inlineStr">
+      <c r="C14" s="19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <f>ROUNDUP(D13*0.1,0)</f>
         <v/>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <f>ROUNDUP(E13*0.1,0)</f>
         <v/>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <f>ROUNDUP(F13*0.1,0)</f>
         <v/>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <f>ROUNDUP(G13*0.1,0)</f>
         <v/>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <f>ROUNDUP(H13*0.1,0)</f>
         <v/>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="19">
         <f>ROUNDUP(I13*0.1,0)</f>
         <v/>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="19">
         <f>ROUNDUP(J13*0.1,0)</f>
         <v/>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="19">
         <f>ROUNDUP(K13*0.1,0)</f>
         <v/>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <f>ROUNDUP(L13*0.1,0)</f>
         <v/>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <f>ROUNDUP(M13*0.1,0)</f>
         <v/>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <f>ROUNDUP(N13*0.1,0)</f>
         <v/>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="19">
         <f>ROUNDUP(O13*0.1,0)</f>
         <v/>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="19">
         <f>ROUNDUP(P13*0.1,0)</f>
         <v/>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <f>ROUNDUP(Q13*0.1,0)</f>
         <v/>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <f>ROUNDUP(R13*0.1,0)</f>
         <v/>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="19">
         <f>ROUNDUP(S13*0.1,0)</f>
         <v/>
       </c>
-      <c r="T14" s="20">
+      <c r="T14" s="19">
         <f>ROUNDUP(T13*0.1,0)</f>
         <v/>
       </c>
-      <c r="U14" s="20">
+      <c r="U14" s="19">
         <f>ROUNDUP(U13*0.1,0)</f>
         <v/>
       </c>
-      <c r="V14" s="20">
+      <c r="V14" s="19">
         <f>ROUNDUP(V13*0.1,0)</f>
         <v/>
       </c>
-      <c r="W14" s="20">
+      <c r="W14" s="19">
         <f>ROUNDUP(W13*0.1,0)</f>
         <v/>
       </c>
-      <c r="X14" s="20">
+      <c r="X14" s="19">
         <f>ROUNDUP(X13*0.1,0)</f>
         <v/>
       </c>
-      <c r="Y14" s="20">
+      <c r="Y14" s="19">
         <f>ROUNDUP(Y13*0.1,0)</f>
         <v/>
       </c>
-      <c r="Z14" s="20">
+      <c r="Z14" s="19">
         <f>ROUNDUP(Z13*0.1,0)</f>
         <v/>
       </c>
@@ -2510,7 +2473,7 @@
           <t>Пропускная способность ВКС, Мбит/с</t>
         </is>
       </c>
-      <c r="B15" s="21" t="inlineStr">
+      <c r="B15" s="20" t="inlineStr">
         <is>
           <r>
             <t>B</t>
@@ -2528,100 +2491,100 @@
           </r>
         </is>
       </c>
-      <c r="C15" s="21" t="inlineStr">
+      <c r="C15" s="20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <f>D14*2</f>
         <v/>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <f>E14*2</f>
         <v/>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <f>F14*2</f>
         <v/>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <f>G14*2</f>
         <v/>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <f>H14*2</f>
         <v/>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <f>I14*2</f>
         <v/>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <f>J14*2</f>
         <v/>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <f>K14*2</f>
         <v/>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="20">
         <f>L14*2</f>
         <v/>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="20">
         <f>M14*2</f>
         <v/>
       </c>
-      <c r="N15" s="21">
+      <c r="N15" s="20">
         <f>N14*2</f>
         <v/>
       </c>
-      <c r="O15" s="21">
+      <c r="O15" s="20">
         <f>O14*2</f>
         <v/>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="20">
         <f>P14*2</f>
         <v/>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="20">
         <f>Q14*2</f>
         <v/>
       </c>
-      <c r="R15" s="21">
+      <c r="R15" s="20">
         <f>R14*2</f>
         <v/>
       </c>
-      <c r="S15" s="21">
+      <c r="S15" s="20">
         <f>S14*2</f>
         <v/>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="20">
         <f>T14*2</f>
         <v/>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="20">
         <f>U14*2</f>
         <v/>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="20">
         <f>V14*2</f>
         <v/>
       </c>
-      <c r="W15" s="21">
+      <c r="W15" s="20">
         <f>W14*2</f>
         <v/>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="20">
         <f>X14*2</f>
         <v/>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="20">
         <f>Y14*2</f>
         <v/>
       </c>
-      <c r="Z15" s="21">
+      <c r="Z15" s="20">
         <f>Z14*2</f>
         <v/>
       </c>
@@ -2637,33 +2600,33 @@
           <t>BIPTV</t>
         </is>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="30">
         <f>100*2+47*19</f>
         <v/>
       </c>
-      <c r="D16" s="36" t="n"/>
-      <c r="E16" s="36" t="n"/>
-      <c r="F16" s="36" t="n"/>
-      <c r="G16" s="36" t="n"/>
-      <c r="H16" s="36" t="n"/>
-      <c r="I16" s="36" t="n"/>
-      <c r="J16" s="36" t="n"/>
-      <c r="K16" s="36" t="n"/>
-      <c r="L16" s="36" t="n"/>
-      <c r="M16" s="36" t="n"/>
-      <c r="N16" s="36" t="n"/>
-      <c r="O16" s="36" t="n"/>
-      <c r="P16" s="36" t="n"/>
-      <c r="Q16" s="36" t="n"/>
-      <c r="R16" s="36" t="n"/>
-      <c r="S16" s="36" t="n"/>
-      <c r="T16" s="36" t="n"/>
-      <c r="U16" s="36" t="n"/>
-      <c r="V16" s="36" t="n"/>
-      <c r="W16" s="36" t="n"/>
-      <c r="X16" s="36" t="n"/>
-      <c r="Y16" s="36" t="n"/>
-      <c r="Z16" s="34" t="n"/>
+      <c r="D16" s="35" t="n"/>
+      <c r="E16" s="35" t="n"/>
+      <c r="F16" s="35" t="n"/>
+      <c r="G16" s="35" t="n"/>
+      <c r="H16" s="35" t="n"/>
+      <c r="I16" s="35" t="n"/>
+      <c r="J16" s="35" t="n"/>
+      <c r="K16" s="35" t="n"/>
+      <c r="L16" s="35" t="n"/>
+      <c r="M16" s="35" t="n"/>
+      <c r="N16" s="35" t="n"/>
+      <c r="O16" s="35" t="n"/>
+      <c r="P16" s="35" t="n"/>
+      <c r="Q16" s="35" t="n"/>
+      <c r="R16" s="35" t="n"/>
+      <c r="S16" s="35" t="n"/>
+      <c r="T16" s="35" t="n"/>
+      <c r="U16" s="35" t="n"/>
+      <c r="V16" s="35" t="n"/>
+      <c r="W16" s="35" t="n"/>
+      <c r="X16" s="35" t="n"/>
+      <c r="Y16" s="35" t="n"/>
+      <c r="Z16" s="33" t="n"/>
     </row>
     <row r="17" ht="79.95" customHeight="1" thickBot="1">
       <c r="A17" s="5" t="inlineStr">
@@ -2811,66 +2774,66 @@
           </r>
         </is>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <f>D17</f>
         <v/>
       </c>
-      <c r="D18" s="38" t="n"/>
-      <c r="E18" s="37">
+      <c r="D18" s="37" t="n"/>
+      <c r="E18" s="36">
         <f>E17+F17</f>
         <v/>
       </c>
-      <c r="F18" s="38" t="n"/>
-      <c r="G18" s="37">
+      <c r="F18" s="37" t="n"/>
+      <c r="G18" s="36">
         <f>G17+H17</f>
         <v/>
       </c>
-      <c r="H18" s="38" t="n"/>
-      <c r="I18" s="37">
+      <c r="H18" s="37" t="n"/>
+      <c r="I18" s="36">
         <f>I17+J17</f>
         <v/>
       </c>
-      <c r="J18" s="38" t="n"/>
-      <c r="K18" s="37">
+      <c r="J18" s="37" t="n"/>
+      <c r="K18" s="36">
         <f>K17+L17</f>
         <v/>
       </c>
-      <c r="L18" s="38" t="n"/>
-      <c r="M18" s="37">
+      <c r="L18" s="37" t="n"/>
+      <c r="M18" s="36">
         <f>M17+N17</f>
         <v/>
       </c>
-      <c r="N18" s="38" t="n"/>
-      <c r="O18" s="37">
+      <c r="N18" s="37" t="n"/>
+      <c r="O18" s="36">
         <f>O17+P17</f>
         <v/>
       </c>
-      <c r="P18" s="38" t="n"/>
-      <c r="Q18" s="37">
+      <c r="P18" s="37" t="n"/>
+      <c r="Q18" s="36">
         <f>Q17+R17</f>
         <v/>
       </c>
-      <c r="R18" s="38" t="n"/>
-      <c r="S18" s="37">
+      <c r="R18" s="37" t="n"/>
+      <c r="S18" s="36">
         <f>S17+T17</f>
         <v/>
       </c>
-      <c r="T18" s="38" t="n"/>
-      <c r="U18" s="37">
+      <c r="T18" s="37" t="n"/>
+      <c r="U18" s="36">
         <f>U17+V17</f>
         <v/>
       </c>
-      <c r="V18" s="38" t="n"/>
-      <c r="W18" s="37">
+      <c r="V18" s="37" t="n"/>
+      <c r="W18" s="36">
         <f>W17+X17</f>
         <v/>
       </c>
-      <c r="X18" s="38" t="n"/>
-      <c r="Y18" s="37">
+      <c r="X18" s="37" t="n"/>
+      <c r="Y18" s="36">
         <f>Y17+Z17</f>
         <v/>
       </c>
-      <c r="Z18" s="38" t="n"/>
+      <c r="Z18" s="37" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="38">
